--- a/账号.xlsx
+++ b/账号.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wind\Documents\GitHub\yasewang2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="13620"/>
+    <workbookView windowWidth="28700" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>gy356197931</t>
   </si>
@@ -33,6 +28,9 @@
     <t xml:space="preserve">缓步当歌 </t>
   </si>
   <si>
+    <t>只舔怪   2013/8/24 1200</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -63,6 +61,9 @@
     <t>夏娜_sama</t>
   </si>
   <si>
+    <t>8月31日晚上24点00</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -78,22 +79,7 @@
     <t>傲娇的小萝莉</t>
   </si>
   <si>
-    <t>wangling</t>
-  </si>
-  <si>
-    <t>风的眷恋</t>
-  </si>
-  <si>
-    <t>2013/8/25 12点停止</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadako0409 </t>
-  </si>
-  <si>
-    <t>lmr2811111m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlchemyOwO </t>
+    <t xml:space="preserve"> 舔怪，练级 2013/8/27,每日  2829回来补钱</t>
   </si>
   <si>
     <t>xzk940916</t>
@@ -102,10 +88,7 @@
     <t>qq2694868</t>
   </si>
   <si>
-    <t xml:space="preserve">llwcq89757 </t>
-  </si>
-  <si>
-    <t>つ稚い</t>
+    <t>HazerLegacy</t>
   </si>
   <si>
     <t>hwb711yun</t>
@@ -120,31 +103,16 @@
     <t>到80，越快越好</t>
   </si>
   <si>
-    <t>Saber_1974</t>
-  </si>
-  <si>
-    <t>Alsfe24733</t>
-  </si>
-  <si>
     <t>moon312</t>
   </si>
   <si>
+    <t>v2sunshine312312</t>
+  </si>
+  <si>
     <t xml:space="preserve">矢仓枫子 </t>
   </si>
   <si>
-    <t>完成以后补上几天，他在刷bra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w7513118 </t>
-  </si>
-  <si>
-    <t>w7513118</t>
-  </si>
-  <si>
-    <t>不甜的西瓜</t>
-  </si>
-  <si>
-    <t>50停止，明天停止</t>
+    <t>补到85</t>
   </si>
   <si>
     <r>
@@ -184,6 +152,178 @@
     <t>mmmoo</t>
   </si>
   <si>
+    <t>夜夜夜夜5521</t>
+  </si>
+  <si>
+    <t>ye778899</t>
+  </si>
+  <si>
+    <t>随疯少年</t>
+  </si>
+  <si>
+    <t>舔怪，重复舔 2013/8/28 2400</t>
+  </si>
+  <si>
+    <t>tritium0811</t>
+  </si>
+  <si>
+    <t>松岡美羽</t>
+  </si>
+  <si>
+    <t>只舔怪   2013/9/24 00点停止</t>
+  </si>
+  <si>
+    <t>tb8482387</t>
+  </si>
+  <si>
+    <t>格式化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/8/28 1200</t>
+  </si>
+  <si>
+    <t>qianli272630</t>
+  </si>
+  <si>
+    <t>影子121E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/8/30 00</t>
+  </si>
+  <si>
+    <t>g7948598</t>
+  </si>
+  <si>
+    <t>卡拉波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9月1号24点为止
+</t>
+  </si>
+  <si>
+    <t>xuflyfly</t>
+  </si>
+  <si>
+    <t>xufei1985</t>
+  </si>
+  <si>
+    <t>除非</t>
+  </si>
+  <si>
+    <t>舔怪，重复舔 2013/8/27 00</t>
+  </si>
+  <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
+  </si>
+  <si>
+    <t>meme501</t>
+  </si>
+  <si>
+    <t>zhaoxinyan</t>
+  </si>
+  <si>
+    <t>鸠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舔怪，比基尼   付款到8月31 24点  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">绯色的逆鳞 </t>
+  </si>
+  <si>
+    <t>yueyang115</t>
+  </si>
+  <si>
+    <t>阿尔托莉亚</t>
+  </si>
+  <si>
+    <t>舔怪，比基尼   付款到8月31 04点+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilanqq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilan1899 </t>
+  </si>
+  <si>
+    <t>贺兰山雪</t>
+  </si>
+  <si>
+    <t>正常，帮打理，删除好友， 9月1日18:00</t>
+  </si>
+  <si>
+    <t>陈帅伍01</t>
+  </si>
+  <si>
+    <t>sdfzcsw5519106</t>
+  </si>
+  <si>
+    <t>夏特亚</t>
+  </si>
+  <si>
+    <t>9.26 2400</t>
+  </si>
+  <si>
+    <t>dccong</t>
+  </si>
+  <si>
+    <t>qiyuan001</t>
+  </si>
+  <si>
+    <t>:*☆祈愿</t>
+  </si>
+  <si>
+    <t>欠我40.  2013/8/26 2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llwcq89757 </t>
+  </si>
+  <si>
+    <t>つ稚い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadako0409 </t>
+  </si>
+  <si>
+    <t>lmr2811111m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlchemyOwO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanglongyi2000 </t>
+  </si>
+  <si>
+    <t>wangling</t>
+  </si>
+  <si>
+    <t>风的眷恋</t>
+  </si>
+  <si>
+    <t>2013/8/25 12点停止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w7513118 </t>
+  </si>
+  <si>
+    <t>w7513118</t>
+  </si>
+  <si>
+    <t>不甜的西瓜</t>
+  </si>
+  <si>
+    <t>50停止，明天停止</t>
+  </si>
+  <si>
     <t>starha星皓</t>
   </si>
   <si>
@@ -193,153 +333,13 @@
     <t>StarHA</t>
   </si>
   <si>
-    <t>夜夜夜夜5521</t>
-  </si>
-  <si>
-    <t>ye778899</t>
-  </si>
-  <si>
-    <t>随疯少年</t>
-  </si>
-  <si>
-    <t>松岡美羽</t>
-  </si>
-  <si>
-    <t>qiyuan001</t>
-  </si>
-  <si>
-    <t>:*☆祈愿</t>
-  </si>
-  <si>
-    <t>shensi1999</t>
-  </si>
-  <si>
-    <t>晶兰</t>
-  </si>
-  <si>
-    <t>2013/8/24 24点停止，暂停，补上一天</t>
-  </si>
-  <si>
-    <t>格式化</t>
-  </si>
-  <si>
-    <t>稀饭哥</t>
-  </si>
-  <si>
-    <t>qianli272630</t>
-  </si>
-  <si>
-    <t>影子121E</t>
-  </si>
-  <si>
-    <t>卡拉波</t>
-  </si>
-  <si>
-    <t>xufei1985</t>
-  </si>
-  <si>
-    <t>除非</t>
-  </si>
-  <si>
-    <t>舔怪，重复舔 2013/8/27 00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/28 1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔怪，重复舔 2013/8/28 1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只舔怪   2013/8/24 1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/27,每日  2829回来补钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
-    <t>乱来的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhaoxinyan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">绯色的逆鳞 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yueyang115</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/30 00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿尔托莉亚</t>
-  </si>
-  <si>
-    <t>tritium0811</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠我40.  2013/8/26 2400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Saber_1974</t>
+  </si>
+  <si>
+    <t>Alsfe24733</t>
   </si>
   <si>
     <t>传说之炎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只舔怪   2013/9/24 00点停止</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meme501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilanqq </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贺兰山雪</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilan1899 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常，帮打理，删除好友， 9月1日18:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月31日晚上24点00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">wanglongyi2000 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HazerLegacy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,71 +355,37 @@
       </rPr>
       <t> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb8482387</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g7948598</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">9月1号24点为止
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶宏凌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">舔怪，比基尼   付款到8月31 24点  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔怪，比基尼   付款到8月31 04点+6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xuflyfly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dccong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈帅伍01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.26 2400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sdfzcsw5519106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏特亚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2sunshine312312</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shensi1999</t>
+  </si>
+  <si>
+    <t>晶兰</t>
+  </si>
+  <si>
+    <t>2013/8/24 24点停止，暂停，补上一天，欠我一天</t>
+  </si>
+  <si>
+    <t>完成以后补上几天，他在刷bra</t>
+  </si>
+  <si>
+    <t>稀饭哥</t>
+  </si>
+  <si>
+    <t>乱来的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -434,12 +400,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -450,13 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,8 +430,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -483,25 +458,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -800,7 +768,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -835,14 +802,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -854,7 +822,7 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -880,24 +848,24 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J1">
         <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>15810706616</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>47</v>
@@ -912,21 +880,21 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>18857879155</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>56</v>
@@ -941,24 +909,24 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>13986809410</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -973,18 +941,18 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>15899563412</v>
@@ -993,7 +961,7 @@
         <v>123123123</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1008,15 +976,15 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>18819705982</v>
@@ -1025,7 +993,7 @@
         <v>1213005566</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>46</v>
@@ -1040,27 +1008,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>18623314926</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -1078,21 +1046,21 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>13810607691</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -1107,59 +1075,62 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J8">
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>13925094844</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>32</v>
-      </c>
-      <c r="B9">
-        <v>18669786886</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="3">
-        <v>50</v>
-      </c>
-      <c r="F9" s="3">
-        <v>70</v>
-      </c>
-      <c r="G9" s="4">
-        <v>41502</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>53</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>41</v>
       </c>
       <c r="B10">
         <v>15902134667</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>26</v>
@@ -1177,21 +1148,21 @@
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>18600655339</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1209,21 +1180,21 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1235,64 +1206,36 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:9">
       <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13">
-        <v>13023751921</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B13"/>
       <c r="C13" s="1">
         <v>19870811</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="5">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6">
         <v>60</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>41506</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14">
-        <v>18620662086</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>45</v>
-      </c>
-      <c r="G14" s="4">
-        <v>41506</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>93</v>
       </c>
       <c r="B15">
         <v>13670251892</v>
@@ -1301,7 +1244,7 @@
         <v>19961225</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>49</v>
@@ -1313,21 +1256,21 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>13718854889</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -1339,12 +1282,12 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>15195905183</v>
@@ -1353,7 +1296,7 @@
         <v>79499888</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>41</v>
@@ -1361,22 +1304,22 @@
       <c r="G17" s="2">
         <v>41508</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>15953906196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>52</v>
@@ -1388,21 +1331,21 @@
         <v>2</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>15959209037</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1414,21 +1357,21 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>13636439500</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>52</v>
@@ -1440,21 +1383,21 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B21">
         <v>18669000833</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G21" s="2">
         <v>41510</v>
@@ -1463,21 +1406,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>13682563089</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -1489,21 +1432,21 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>15887851580</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -1515,44 +1458,44 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1567,9 +1510,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1578,7 +1521,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1593,24 +1536,24 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1625,21 +1568,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1654,24 +1597,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1686,24 +1629,24 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="J5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1718,30 +1661,90 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:11">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>18669786886</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41502</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>18620662086</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41506</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -1749,18 +1752,18 @@
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -1775,35 +1778,37 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="1:1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9">
       <c r="B1">
         <v>18795920357</v>
       </c>
@@ -1811,17 +1816,18 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/账号.xlsx
+++ b/账号.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>gy356197931</t>
   </si>
@@ -201,6 +201,66 @@
 </t>
   </si>
   <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
+  </si>
+  <si>
+    <t>meme501</t>
+  </si>
+  <si>
+    <t>zhaoxinyan</t>
+  </si>
+  <si>
+    <t>鸠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舔怪，比基尼   付款到8月31 24点  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">绯色的逆鳞 </t>
+  </si>
+  <si>
+    <t>yueyang115</t>
+  </si>
+  <si>
+    <t>阿尔托莉亚</t>
+  </si>
+  <si>
+    <t>舔怪，比基尼   付款到8月31 04点+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilanqq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilan1899 </t>
+  </si>
+  <si>
+    <t>贺兰山雪</t>
+  </si>
+  <si>
+    <t>正常，帮打理，删除好友， 9月1日18:00</t>
+  </si>
+  <si>
+    <t>陈帅伍01</t>
+  </si>
+  <si>
+    <t>sdfzcsw5519106</t>
+  </si>
+  <si>
+    <t>夏特亚</t>
+  </si>
+  <si>
+    <t>9.26 2400</t>
+  </si>
+  <si>
     <t>xuflyfly</t>
   </si>
   <si>
@@ -210,67 +270,34 @@
     <t>除非</t>
   </si>
   <si>
-    <t>舔怪，重复舔 2013/8/27 00</t>
-  </si>
-  <si>
-    <t>叶宏凌</t>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
-    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
-  </si>
-  <si>
-    <t>meme501</t>
-  </si>
-  <si>
-    <t>zhaoxinyan</t>
-  </si>
-  <si>
-    <t>鸠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舔怪，比基尼   付款到8月31 24点  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">绯色的逆鳞 </t>
-  </si>
-  <si>
-    <t>yueyang115</t>
-  </si>
-  <si>
-    <t>阿尔托莉亚</t>
-  </si>
-  <si>
-    <t>舔怪，比基尼   付款到8月31 04点+6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilanqq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilan1899 </t>
-  </si>
-  <si>
-    <t>贺兰山雪</t>
-  </si>
-  <si>
-    <t>正常，帮打理，删除好友， 9月1日18:00</t>
-  </si>
-  <si>
-    <t>陈帅伍01</t>
-  </si>
-  <si>
-    <t>sdfzcsw5519106</t>
-  </si>
-  <si>
-    <t>夏特亚</t>
-  </si>
-  <si>
-    <t>9.26 2400</t>
+    <t>舔怪，重复舔 2013/9/27 00</t>
+  </si>
+  <si>
+    <t>linyujun2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cale </t>
+  </si>
+  <si>
+    <t>舔怪，重复舔，大刀 2013/08/30 21:00</t>
+  </si>
+  <si>
+    <t>此人无女仆</t>
+  </si>
+  <si>
+    <t>bkhhkl</t>
+  </si>
+  <si>
+    <t>bkhhkl30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚特兰蒂斯 </t>
+  </si>
+  <si>
+    <t>升级，舔怪 尽快</t>
+  </si>
+  <si>
+    <t>大款</t>
   </si>
   <si>
     <t>dccong</t>
@@ -343,6 +370,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>tb751171207</t>
     </r>
     <r>
@@ -380,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -804,10 +838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1308,44 +1342,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>15953906196</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2">
-        <v>41509</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>15959209037</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1357,21 +1365,21 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>13636439500</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>52</v>
@@ -1383,21 +1391,21 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>18669000833</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G21" s="2">
         <v>41510</v>
@@ -1406,21 +1414,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>13682563089</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -1432,21 +1440,21 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>15887851580</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -1458,7 +1466,82 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>15953906196</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2">
+        <v>41512</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26">
+        <v>13868879028</v>
+      </c>
+      <c r="C26">
+        <v>11223344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>15164061499</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="2">
+        <v>41514</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1486,16 +1569,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1507,12 +1590,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1521,7 +1604,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1544,16 +1627,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1573,16 +1656,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1597,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1605,16 +1688,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1629,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1637,16 +1720,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1672,16 +1755,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1704,16 +1787,16 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1725,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J1">
         <v>73</v>
@@ -1800,7 +1883,7 @@
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="1:1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1816,13 +1899,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -17,69 +17,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
-  <si>
-    <t>gy356197931</t>
-  </si>
-  <si>
-    <t>qwer1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">缓步当歌 </t>
-  </si>
-  <si>
-    <t>只舔怪   2013/8/24 1200</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+  <si>
+    <t>hore丨噬魂</t>
+  </si>
+  <si>
+    <t>19961007yyf</t>
+  </si>
+  <si>
+    <t>夏娜_sama</t>
+  </si>
+  <si>
+    <t>8月31日晚上24点00</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wxsc1005 </t>
+  </si>
+  <si>
+    <t>alices.G </t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>10906493th</t>
-  </si>
-  <si>
-    <t>th199866</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>lu422745665  </t>
-  </si>
-  <si>
-    <t>lu56799233</t>
-  </si>
-  <si>
-    <t>梦之暴君</t>
-  </si>
-  <si>
-    <t>hore丨噬魂</t>
-  </si>
-  <si>
-    <t>19961007yyf</t>
-  </si>
-  <si>
-    <t>夏娜_sama</t>
-  </si>
-  <si>
-    <t>8月31日晚上24点00</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wxsc1005 </t>
-  </si>
-  <si>
-    <t>alices.G </t>
-  </si>
-  <si>
     <t>其中一个土豪</t>
   </si>
   <si>
     <t>傲娇的小萝莉</t>
   </si>
   <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/27,每日  2829回来补钱</t>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/14</t>
   </si>
   <si>
     <t>xzk940916</t>
@@ -152,43 +122,13 @@
     <t>mmmoo</t>
   </si>
   <si>
-    <t>夜夜夜夜5521</t>
-  </si>
-  <si>
-    <t>ye778899</t>
-  </si>
-  <si>
-    <t>随疯少年</t>
-  </si>
-  <si>
-    <t>舔怪，重复舔 2013/8/28 2400</t>
-  </si>
-  <si>
     <t>tritium0811</t>
   </si>
   <si>
     <t>松岡美羽</t>
   </si>
   <si>
-    <t>只舔怪   2013/9/24 00点停止</t>
-  </si>
-  <si>
-    <t>tb8482387</t>
-  </si>
-  <si>
-    <t>格式化</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/28 1200</t>
-  </si>
-  <si>
-    <t>qianli272630</t>
-  </si>
-  <si>
-    <t>影子121E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/8/30 00</t>
+    <t>只舔怪   2013/9/24 12点停止</t>
   </si>
   <si>
     <t>g7948598</t>
@@ -222,7 +162,10 @@
     <t>鸠</t>
   </si>
   <si>
-    <t xml:space="preserve">舔怪，比基尼   付款到8月31 24点  </t>
+    <t xml:space="preserve">舔怪，比基尼   付款到9月1 12点  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">看的紧 </t>
   </si>
   <si>
     <t xml:space="preserve">绯色的逆鳞 </t>
@@ -294,12 +237,33 @@
     <t xml:space="preserve">亚特兰蒂斯 </t>
   </si>
   <si>
-    <t>升级，舔怪 尽快</t>
+    <t>升级，舔怪 到100</t>
   </si>
   <si>
     <t>大款</t>
   </si>
   <si>
+    <t xml:space="preserve">a188144780 </t>
+  </si>
+  <si>
+    <t>八八八八八</t>
+  </si>
+  <si>
+    <t>舔怪，升级 2013/09/06 24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg9662lg </t>
+  </si>
+  <si>
+    <t>lg9662lg</t>
+  </si>
+  <si>
+    <t>大队大队啊</t>
+  </si>
+  <si>
+    <t>升级 09/01-2013/09/07 24:00</t>
+  </si>
+  <si>
     <t>dccong</t>
   </si>
   <si>
@@ -316,6 +280,9 @@
   </si>
   <si>
     <t>つ稚い</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t xml:space="preserve">sadako0409 </t>
@@ -400,6 +367,66 @@
     <t>2013/8/24 24点停止，暂停，补上一天，欠我一天</t>
   </si>
   <si>
+    <t>gy356197931</t>
+  </si>
+  <si>
+    <t>qwer1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缓步当歌 </t>
+  </si>
+  <si>
+    <t>只舔怪   2013/8/24 1200</t>
+  </si>
+  <si>
+    <t>10906493th</t>
+  </si>
+  <si>
+    <t>th199866</t>
+  </si>
+  <si>
+    <t>lu422745665  </t>
+  </si>
+  <si>
+    <t>lu56799233</t>
+  </si>
+  <si>
+    <t>梦之暴君</t>
+  </si>
+  <si>
+    <t>夜夜夜夜5521</t>
+  </si>
+  <si>
+    <t>ye778899</t>
+  </si>
+  <si>
+    <t>随疯少年</t>
+  </si>
+  <si>
+    <t>舔怪，重复舔 2013/8/28 2400</t>
+  </si>
+  <si>
+    <t>不好搞。</t>
+  </si>
+  <si>
+    <t>tb8482387</t>
+  </si>
+  <si>
+    <t>格式化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/8/28 1200</t>
+  </si>
+  <si>
+    <t>qianli272630</t>
+  </si>
+  <si>
+    <t>影子121E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/8/30 00</t>
+  </si>
+  <si>
     <t>完成以后补上几天，他在刷bra</t>
   </si>
   <si>
@@ -414,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -838,10 +865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A4:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -856,111 +883,18 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>13621790635</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>50</v>
-      </c>
-      <c r="F1">
-        <v>61</v>
-      </c>
-      <c r="G1" s="2">
-        <v>41499</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>15810706616</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>47</v>
-      </c>
-      <c r="F2">
-        <v>55</v>
-      </c>
-      <c r="G2" s="2">
-        <v>41499</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="12" customHeight="1" spans="1:10">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>18857879155</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>56</v>
-      </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41497</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>69</v>
-      </c>
-    </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>13986809410</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -975,18 +909,18 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>15899563412</v>
@@ -995,7 +929,7 @@
         <v>123123123</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1013,12 +947,12 @@
         <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>18819705982</v>
@@ -1027,7 +961,7 @@
         <v>1213005566</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>46</v>
@@ -1042,27 +976,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>18623314926</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -1080,21 +1014,21 @@
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>13810607691</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -1109,27 +1043,27 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J8">
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>13925094844</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>61</v>
@@ -1144,27 +1078,27 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>15902134667</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>26</v>
@@ -1182,21 +1116,21 @@
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>18600655339</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1214,45 +1148,21 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>15778648815</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2">
-        <v>41506</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" spans="1:9">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13"/>
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>13023751921</v>
+      </c>
       <c r="C13" s="1">
         <v>19870811</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E13" s="6">
         <v>60</v>
@@ -1264,64 +1174,12 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>13670251892</v>
-      </c>
-      <c r="C15" s="1">
-        <v>19961225</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>49</v>
-      </c>
-      <c r="G15" s="2">
-        <v>41507</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <v>13718854889</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="G16" s="2">
-        <v>41508</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:9">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>15195905183</v>
@@ -1330,7 +1188,7 @@
         <v>79499888</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>41</v>
@@ -1339,21 +1197,21 @@
         <v>41508</v>
       </c>
       <c r="I17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>15959209037</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1365,21 +1223,21 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>13636439500</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>52</v>
@@ -1391,21 +1249,24 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>18669000833</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2">
         <v>41510</v>
@@ -1414,21 +1275,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>13682563089</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -1440,21 +1301,21 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>15887851580</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -1466,21 +1327,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>15953906196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>52</v>
@@ -1492,12 +1353,12 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>13868879028</v>
@@ -1506,7 +1367,7 @@
         <v>11223344</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G26" s="2">
         <v>41514</v>
@@ -1515,33 +1376,91 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>15164061499</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>63</v>
       </c>
       <c r="G27" s="2">
         <v>41514</v>
       </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28">
+        <v>13590611989</v>
+      </c>
+      <c r="C28">
+        <v>12345600</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="G28" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>18554602803</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29">
+        <v>54</v>
+      </c>
+      <c r="G29" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1554,31 +1473,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="9.375"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1590,12 +1511,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1604,7 +1525,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1619,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1627,16 +1548,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1651,21 +1572,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1680,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1688,16 +1609,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1712,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1720,16 +1641,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1744,27 +1665,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1782,21 +1703,21 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1808,7 +1729,181 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>13621790635</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>15810706616</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10">
+        <v>47</v>
+      </c>
+      <c r="F10">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41499</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:10">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>18857879155</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41497</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>15778648815</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41506</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>13670251892</v>
+      </c>
+      <c r="C13" s="1">
+        <v>19961225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2">
+        <v>41507</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>13718854889</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>41508</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1837,16 +1932,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -1861,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1899,13 +1994,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>hore丨噬魂</t>
   </si>
@@ -153,33 +153,6 @@
     <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
   </si>
   <si>
-    <t>meme501</t>
-  </si>
-  <si>
-    <t>zhaoxinyan</t>
-  </si>
-  <si>
-    <t>鸠</t>
-  </si>
-  <si>
-    <t xml:space="preserve">舔怪，比基尼   付款到9月1 12点  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">看的紧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">绯色的逆鳞 </t>
-  </si>
-  <si>
-    <t>yueyang115</t>
-  </si>
-  <si>
-    <t>阿尔托莉亚</t>
-  </si>
-  <si>
-    <t>舔怪，比基尼   付款到8月31 04点+6</t>
-  </si>
-  <si>
     <t xml:space="preserve">acmilanqq </t>
   </si>
   <si>
@@ -216,18 +189,6 @@
     <t>舔怪，重复舔 2013/9/27 00</t>
   </si>
   <si>
-    <t>linyujun2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cale </t>
-  </si>
-  <si>
-    <t>舔怪，重复舔，大刀 2013/08/30 21:00</t>
-  </si>
-  <si>
-    <t>此人无女仆</t>
-  </si>
-  <si>
     <t>bkhhkl</t>
   </si>
   <si>
@@ -259,9 +220,6 @@
   </si>
   <si>
     <t>大队大队啊</t>
-  </si>
-  <si>
-    <t>升级 09/01-2013/09/07 24:00</t>
   </si>
   <si>
     <t>dccong</t>
@@ -425,6 +383,45 @@
   </si>
   <si>
     <t xml:space="preserve"> 舔怪，练级 2013/8/30 00</t>
+  </si>
+  <si>
+    <t>linyujun2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cale </t>
+  </si>
+  <si>
+    <t>舔怪，重复舔，大刀 2013/08/30 21:00</t>
+  </si>
+  <si>
+    <t>此人无女仆</t>
+  </si>
+  <si>
+    <t>meme501</t>
+  </si>
+  <si>
+    <t>zhaoxinyan</t>
+  </si>
+  <si>
+    <t>鸠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舔怪，比基尼   付款到9月1 12点  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">看的紧 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">绯色的逆鳞 </t>
+  </si>
+  <si>
+    <t>yueyang115</t>
+  </si>
+  <si>
+    <t>阿尔托莉亚</t>
+  </si>
+  <si>
+    <t>舔怪，比基尼   付款到8月31 04点+6</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -867,8 +864,8 @@
   <sheetPr/>
   <dimension ref="A4:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1226,70 +1223,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>13636439500</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2">
-        <v>41510</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>18669000833</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="2">
-        <v>41510</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>13682563089</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -1301,21 +1246,21 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>15887851580</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -1327,21 +1272,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>15953906196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>52</v>
@@ -1353,47 +1298,21 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26">
-        <v>13868879028</v>
-      </c>
-      <c r="C26">
-        <v>11223344</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="2">
-        <v>41514</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>15164061499</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>63</v>
@@ -1405,15 +1324,15 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>13590611989</v>
@@ -1422,7 +1341,7 @@
         <v>12345600</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>46</v>
@@ -1434,21 +1353,21 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>18554602803</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>54</v>
@@ -1460,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1473,10 +1392,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="17:17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1490,16 +1409,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1511,12 +1430,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1525,7 +1444,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1540,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1548,16 +1467,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1572,21 +1491,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1601,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1609,16 +1528,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1633,7 +1552,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1641,16 +1560,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1665,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1676,16 +1595,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1708,16 +1627,16 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1729,21 +1648,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1758,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1769,13 +1688,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1790,21 +1709,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1819,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1827,16 +1746,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1848,15 +1767,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1865,7 +1784,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1877,21 +1796,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1903,7 +1822,85 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>13868879028</v>
+      </c>
+      <c r="C15">
+        <v>11223344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>13636439500</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="G16" s="2">
+        <v>41510</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>18669000833</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="2">
+        <v>41510</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1956,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1">
         <v>73</v>
@@ -1994,13 +1991,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>124</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14060"/>
+    <workbookView windowWidth="25080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -17,72 +17,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
-  <si>
-    <t>hore丨噬魂</t>
-  </si>
-  <si>
-    <t>19961007yyf</t>
-  </si>
-  <si>
-    <t>夏娜_sama</t>
-  </si>
-  <si>
-    <t>8月31日晚上24点00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+  <si>
+    <t xml:space="preserve">wxsc1005 </t>
+  </si>
+  <si>
+    <t>alices.G </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>其中一个土豪</t>
+  </si>
+  <si>
+    <t>傲娇的小萝莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/14</t>
+  </si>
+  <si>
+    <t>xzk940916</t>
+  </si>
+  <si>
+    <t>qq2694868</t>
+  </si>
+  <si>
+    <t>HazerLegacy</t>
+  </si>
+  <si>
+    <t>好慢，要看看</t>
+  </si>
+  <si>
+    <t>hwb711yun</t>
+  </si>
+  <si>
+    <t> zaq198586</t>
+  </si>
+  <si>
+    <t>花泽蓝秋</t>
+  </si>
+  <si>
+    <t>到80，越快越好，已经完成，确认是否需要下一步练级</t>
+  </si>
+  <si>
+    <t>moon312</t>
+  </si>
+  <si>
+    <t>v2sunshine312312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">矢仓枫子 </t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wxsc1005 </t>
-  </si>
-  <si>
-    <t>alices.G </t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>其中一个土豪</t>
-  </si>
-  <si>
-    <t>傲娇的小萝莉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/9/14</t>
-  </si>
-  <si>
-    <t>xzk940916</t>
-  </si>
-  <si>
-    <t>qq2694868</t>
-  </si>
-  <si>
-    <t>HazerLegacy</t>
-  </si>
-  <si>
-    <t>hwb711yun</t>
-  </si>
-  <si>
-    <t> zaq198586</t>
-  </si>
-  <si>
-    <t>花泽蓝秋</t>
-  </si>
-  <si>
-    <t>到80，越快越好</t>
-  </si>
-  <si>
-    <t>moon312</t>
-  </si>
-  <si>
-    <t>v2sunshine312312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">矢仓枫子 </t>
-  </si>
-  <si>
-    <t>补到85</t>
   </si>
   <si>
     <r>
@@ -131,16 +119,6 @@
     <t>只舔怪   2013/9/24 12点停止</t>
   </si>
   <si>
-    <t>g7948598</t>
-  </si>
-  <si>
-    <t>卡拉波</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9月1号24点为止
-</t>
-  </si>
-  <si>
     <t>叶宏凌</t>
   </si>
   <si>
@@ -220,6 +198,18 @@
   </si>
   <si>
     <t>大队大队啊</t>
+  </si>
+  <si>
+    <t>jerry19890815</t>
+  </si>
+  <si>
+    <t>jerryjkr1989</t>
+  </si>
+  <si>
+    <t>龙润帝</t>
+  </si>
+  <si>
+    <t>到100，周末不发货</t>
   </si>
   <si>
     <t>dccong</t>
@@ -422,6 +412,28 @@
   </si>
   <si>
     <t>舔怪，比基尼   付款到8月31 04点+6</t>
+  </si>
+  <si>
+    <t>hore丨噬魂</t>
+  </si>
+  <si>
+    <t>19961007yyf</t>
+  </si>
+  <si>
+    <t>夏娜_sama</t>
+  </si>
+  <si>
+    <t>8月31日晚上24点00</t>
+  </si>
+  <si>
+    <t>g7948598</t>
+  </si>
+  <si>
+    <t>卡拉波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9月1号24点为止
+</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -459,7 +471,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -519,6 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,10 +881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A4:L29"/>
+  <dimension ref="A5:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -880,44 +899,9 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>13986809410</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>52</v>
-      </c>
-      <c r="G4" s="2">
-        <v>41501</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>15899563412</v>
@@ -926,7 +910,7 @@
         <v>123123123</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -944,12 +928,12 @@
         <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>18819705982</v>
@@ -958,7 +942,7 @@
         <v>1213005566</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>46</v>
@@ -973,27 +957,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>18623314926</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -1007,25 +991,28 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J7">
         <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>13810607691</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -1039,28 +1026,28 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="J8">
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>13925094844</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>61</v>
@@ -1074,28 +1061,28 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
+      <c r="I9">
+        <v>100</v>
       </c>
       <c r="J9">
         <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>15902134667</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>26</v>
@@ -1109,25 +1096,28 @@
       <c r="H10">
         <v>1</v>
       </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J10">
         <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>18600655339</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>40</v>
@@ -1145,12 +1135,12 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" spans="1:9">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>13023751921</v>
@@ -1159,7 +1149,7 @@
         <v>19870811</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6">
         <v>60</v>
@@ -1171,44 +1161,21 @@
         <v>1</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:9">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>15195905183</v>
-      </c>
-      <c r="C17" s="1">
-        <v>79499888</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>41</v>
-      </c>
-      <c r="G17" s="2">
-        <v>41508</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>15959209037</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1219,22 +1186,22 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
+      <c r="I19" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="1:9">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>13682563089</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>24</v>
@@ -1245,22 +1212,22 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" t="s">
-        <v>41</v>
+      <c r="I22" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>15887851580</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>14</v>
@@ -1272,21 +1239,21 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>15953906196</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>52</v>
@@ -1298,21 +1265,21 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>15164061499</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>63</v>
@@ -1324,15 +1291,15 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>13590611989</v>
@@ -1341,7 +1308,7 @@
         <v>12345600</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>46</v>
@@ -1353,21 +1320,21 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>18554602803</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>54</v>
@@ -1379,6 +1346,32 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>13774392509</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1392,10 +1385,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="17:17"/>
+      <selection activeCell="A20" sqref="20:20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1409,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1430,12 +1423,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1444,7 +1437,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1459,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1467,16 +1460,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1491,21 +1484,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1520,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1528,16 +1521,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1552,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1560,16 +1553,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1584,27 +1577,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1622,21 +1615,21 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1648,21 +1641,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1677,24 +1670,24 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J9">
         <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1709,21 +1702,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1738,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1746,16 +1739,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1767,15 +1760,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1784,7 +1777,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1796,21 +1789,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1822,12 +1815,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1836,7 +1829,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1845,24 +1838,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1874,24 +1867,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1900,7 +1893,65 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>13986809410</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
         <v>121</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>52</v>
+      </c>
+      <c r="G18" s="2">
+        <v>41501</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:9">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19">
+        <v>15195905183</v>
+      </c>
+      <c r="C19" s="1">
+        <v>79499888</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2">
+        <v>41508</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1916,7 +1967,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="1:1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1929,16 +1980,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -1953,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1991,13 +2042,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t xml:space="preserve">wxsc1005 </t>
   </si>
@@ -46,19 +46,7 @@
     <t>HazerLegacy</t>
   </si>
   <si>
-    <t>好慢，要看看</t>
-  </si>
-  <si>
-    <t>hwb711yun</t>
-  </si>
-  <si>
-    <t> zaq198586</t>
-  </si>
-  <si>
-    <t>花泽蓝秋</t>
-  </si>
-  <si>
-    <t>到80，越快越好，已经完成，确认是否需要下一步练级</t>
+    <t>好慢，要看看,到100</t>
   </si>
   <si>
     <t>moon312</t>
@@ -68,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">矢仓枫子 </t>
+  </si>
+  <si>
+    <t>100 暂停了</t>
   </si>
   <si>
     <t>N</t>
@@ -101,6 +92,9 @@
     <t>贪睡de小黑</t>
   </si>
   <si>
+    <t>好慢，要看看</t>
+  </si>
+  <si>
     <t>hmj651223</t>
   </si>
   <si>
@@ -119,30 +113,6 @@
     <t>只舔怪   2013/9/24 12点停止</t>
   </si>
   <si>
-    <t>叶宏凌</t>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
-    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilanqq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilan1899 </t>
-  </si>
-  <si>
-    <t>贺兰山雪</t>
-  </si>
-  <si>
-    <t>正常，帮打理，删除好友， 9月1日18:00</t>
-  </si>
-  <si>
     <t>陈帅伍01</t>
   </si>
   <si>
@@ -210,6 +180,18 @@
   </si>
   <si>
     <t>到100，周末不发货</t>
+  </si>
+  <si>
+    <t>sabrina1101</t>
+  </si>
+  <si>
+    <t>08091101</t>
+  </si>
+  <si>
+    <t>DQ1101</t>
+  </si>
+  <si>
+    <t>22W好人卡</t>
   </si>
   <si>
     <t>dccong</t>
@@ -434,6 +416,42 @@
   <si>
     <t xml:space="preserve">9月1号24点为止
 </t>
+  </si>
+  <si>
+    <t>hwb711yun</t>
+  </si>
+  <si>
+    <t> zaq198586</t>
+  </si>
+  <si>
+    <t>花泽蓝秋</t>
+  </si>
+  <si>
+    <t>到80，越快越好，已经完成，确认是否需要下一步练级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilanqq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilan1899 </t>
+  </si>
+  <si>
+    <t>贺兰山雪</t>
+  </si>
+  <si>
+    <t>正常，帮打理，删除好友， 9月1日18:00</t>
+  </si>
+  <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -471,7 +489,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,12 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -537,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -881,10 +893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A5:L30"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -899,33 +911,173 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>15899563412</v>
+      </c>
+      <c r="C1" s="1">
+        <v>123123123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>28</v>
+      </c>
+      <c r="F1">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2">
+        <v>41501</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>18819705982</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1213005566</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2">
+        <v>41501</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>18623314926</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>13925094844</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>15899563412</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123123123</v>
+        <v>15902134667</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G5" s="2">
-        <v>41501</v>
+        <v>41503</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
@@ -933,446 +1085,239 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>18819705982</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1213005566</v>
+        <v>18600655339</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41503</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:9">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>13023751921</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19870811</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>60</v>
+      </c>
+      <c r="G7" s="7">
+        <v>41506</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>15887851580</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>15953906196</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2">
+        <v>41512</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>15164061499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>13590611989</v>
+      </c>
+      <c r="C11">
+        <v>12345600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6" s="2">
-        <v>41501</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6">
+      <c r="G11" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>18554602803</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>13774392509</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>18918188901</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="2">
+        <v>41519</v>
+      </c>
+      <c r="I14" t="s">
         <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>18623314926</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>73</v>
-      </c>
-      <c r="G7" s="2">
-        <v>41502</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>13810607691</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>55</v>
-      </c>
-      <c r="F8">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2">
-        <v>41502</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>13925094844</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>85</v>
-      </c>
-      <c r="G9" s="2">
-        <v>41502</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>15902134667</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>26</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10" s="2">
-        <v>41503</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>18600655339</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>80</v>
-      </c>
-      <c r="G11" s="2">
-        <v>41503</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>65</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>13023751921</v>
-      </c>
-      <c r="C13" s="1">
-        <v>19870811</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="6">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7">
-        <v>41506</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>15959209037</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2">
-        <v>41510</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>13682563089</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>24</v>
-      </c>
-      <c r="G22" s="2">
-        <v>41511</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>15887851580</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2">
-        <v>41511</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>15953906196</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <v>52</v>
-      </c>
-      <c r="G25" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>15164061499</v>
-      </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27">
-        <v>63</v>
-      </c>
-      <c r="G27" s="2">
-        <v>41514</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <v>13590611989</v>
-      </c>
-      <c r="C28">
-        <v>12345600</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28">
-        <v>46</v>
-      </c>
-      <c r="G28" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <v>18554602803</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29">
-        <v>54</v>
-      </c>
-      <c r="G29" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30">
-        <v>13774392509</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30">
-        <v>61</v>
-      </c>
-      <c r="G30" s="2">
-        <v>41519</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1385,10 +1330,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="20:20"/>
+      <selection activeCell="A22" sqref="22:22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,16 +1347,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1423,12 +1368,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1437,7 +1382,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1452,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1460,16 +1405,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1484,21 +1429,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1513,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1521,16 +1466,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1545,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1553,16 +1498,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1577,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1588,16 +1533,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1620,16 +1565,16 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1641,21 +1586,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1670,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1681,13 +1626,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1702,21 +1647,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1731,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1739,16 +1684,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1760,15 +1705,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1777,7 +1722,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1789,21 +1734,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1815,12 +1760,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1829,7 +1774,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1838,24 +1783,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1867,24 +1812,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1893,21 +1838,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1922,18 +1867,18 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J18">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1942,7 +1887,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1951,7 +1896,94 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>13810607691</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:9">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21">
+        <v>13682563089</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <v>15959209037</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2">
+        <v>41510</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1980,16 +2012,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -2004,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2042,13 +2074,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wind\Documents\GitHub\yasewang2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t xml:space="preserve">wxsc1005 </t>
   </si>
@@ -185,9 +190,6 @@
     <t>sabrina1101</t>
   </si>
   <si>
-    <t>08091101</t>
-  </si>
-  <si>
     <t>DQ1101</t>
   </si>
   <si>
@@ -462,18 +464,16 @@
   <si>
     <t>乱来的</t>
   </si>
+  <si>
+    <t>舔怪练级 9月26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -485,6 +485,12 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -518,27 +524,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -549,16 +540,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -857,6 +853,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -891,15 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
@@ -911,7 +907,7 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -978,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:9">
+    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1167,7 +1163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1248,7 +1244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1300,43 +1296,69 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="B14">
         <v>18918188901</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="8">
+        <v>8091101</v>
+      </c>
+      <c r="D14" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="2">
         <v>41519</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>15959209037</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="2">
+        <v>41510</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="22:22"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
@@ -1345,18 +1367,18 @@
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1368,12 +1390,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>56</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1382,7 +1404,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1397,24 +1419,24 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1429,21 +1451,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1458,24 +1480,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1490,24 +1512,24 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1522,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1531,18 +1553,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:11">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1563,18 +1585,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:9">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
         <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1586,21 +1608,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>80</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1615,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1624,15 +1646,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1647,21 +1669,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1" spans="1:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" t="s">
-        <v>88</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1676,24 +1698,24 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1705,15 +1727,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
         <v>92</v>
       </c>
-      <c r="M12" t="s">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>94</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1722,7 +1744,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1734,21 +1756,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>97</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
         <v>97</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1760,12 +1782,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>100</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1774,7 +1796,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1783,24 +1805,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" t="s">
         <v>102</v>
       </c>
-      <c r="L15" t="s">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>104</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" t="s">
-        <v>106</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1812,24 +1834,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
         <v>107</v>
       </c>
-      <c r="L16" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>109</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
         <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1838,21 +1860,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>113</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1867,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J18">
         <v>46</v>
@@ -1876,9 +1898,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1887,7 +1909,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1896,21 +1918,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>120</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>122</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1925,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20">
         <v>60</v>
@@ -1934,18 +1956,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>13682563089</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
         <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -1957,21 +1979,21 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>128</v>
       </c>
       <c r="B22">
         <v>15959209037</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
         <v>129</v>
-      </c>
-      <c r="D22" t="s">
-        <v>130</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1983,26 +2005,26 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2010,7 +2032,7 @@
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J1">
         <v>73</v>
@@ -2046,27 +2068,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>18795920357</v>
       </c>
@@ -2074,17 +2096,18 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>133</v>
       </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wind\Documents\GitHub\yasewang2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25080" windowHeight="13200"/>
+    <workbookView windowWidth="25080" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t xml:space="preserve">wxsc1005 </t>
   </si>
@@ -63,7 +58,7 @@
     <t xml:space="preserve">矢仓枫子 </t>
   </si>
   <si>
-    <t>100 暂停了</t>
+    <t>100 暂停了，9月2日开始停止</t>
   </si>
   <si>
     <t>N</t>
@@ -127,7 +122,7 @@
     <t>夏特亚</t>
   </si>
   <si>
-    <t>9.26 2400</t>
+    <t>9.26 2400,要求22W好人卡先</t>
   </si>
   <si>
     <t>xuflyfly</t>
@@ -175,6 +170,9 @@
     <t>大队大队啊</t>
   </si>
   <si>
+    <t>好烦</t>
+  </si>
+  <si>
     <t>jerry19890815</t>
   </si>
   <si>
@@ -184,7 +182,7 @@
     <t>龙润帝</t>
   </si>
   <si>
-    <t>到100，周末不发货</t>
+    <t>到100，周末不发货，速度要快，尅吃药，好人卡</t>
   </si>
   <si>
     <t>sabrina1101</t>
@@ -194,6 +192,39 @@
   </si>
   <si>
     <t>22W好人卡</t>
+  </si>
+  <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>舔怪练级 9月26日</t>
+  </si>
+  <si>
+    <t>hdy1802</t>
+  </si>
+  <si>
+    <t>q53589471</t>
+  </si>
+  <si>
+    <t>vessege</t>
+  </si>
+  <si>
+    <t>舔怪练级 10月04日</t>
+  </si>
+  <si>
+    <t>sss441044856</t>
+  </si>
+  <si>
+    <t>魔法之派~亚瑟</t>
+  </si>
+  <si>
+    <t>9月18日，舔怪，后面开练级</t>
   </si>
   <si>
     <t>dccong</t>
@@ -444,15 +475,6 @@
     <t>正常，帮打理，删除好友， 9月1日18:00</t>
   </si>
   <si>
-    <t>叶宏凌</t>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
     <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
   </si>
   <si>
@@ -463,17 +485,19 @@
   </si>
   <si>
     <t>乱来的</t>
-  </si>
-  <si>
-    <t>舔怪练级 9月26日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -483,14 +507,15 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
+      <color indexed="30"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -524,8 +549,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -540,21 +580,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -853,7 +890,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -888,26 +924,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="25.8833333333333" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -974,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1079,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="6" customFormat="1" spans="1:9">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1163,7 +1200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1189,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1244,7 +1281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1269,19 +1306,22 @@
       <c r="I12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>13774392509</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>61</v>
@@ -1293,72 +1333,121 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>18918188901</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>8091101</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2">
         <v>41519</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>15959209037</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
       <c r="G15" s="2">
-        <v>41510</v>
+        <v>41519</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>18650767750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="2">
+        <v>41520</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>13088105001</v>
+      </c>
+      <c r="C17">
+        <v>11111111</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2">
+        <v>41520</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A22" sqref="22:22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
@@ -1367,18 +1456,18 @@
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1390,12 +1479,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1404,7 +1493,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1419,24 +1508,24 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1451,21 +1540,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1480,24 +1569,24 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1512,24 +1601,24 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1544,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1553,18 +1642,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1585,18 +1674,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1608,21 +1697,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1637,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1646,15 +1735,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1669,21 +1758,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1698,24 +1787,24 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="J11">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1727,15 +1816,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1744,7 +1833,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1756,21 +1845,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1782,12 +1871,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1796,7 +1885,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1805,24 +1894,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1834,24 +1923,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1860,21 +1949,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1889,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J18">
         <v>46</v>
@@ -1898,9 +1987,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1909,7 +1998,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1918,21 +2007,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1947,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J20">
         <v>60</v>
@@ -1956,18 +2045,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>13682563089</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -1979,21 +2068,21 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>15959209037</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -2005,26 +2094,26 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
@@ -2032,7 +2121,7 @@
     <col min="9" max="9" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2058,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J1">
         <v>73</v>
@@ -2068,27 +2157,27 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9">
       <c r="B1">
         <v>18795920357</v>
       </c>
@@ -2096,18 +2185,17 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -92,16 +92,7 @@
     <t>贪睡de小黑</t>
   </si>
   <si>
-    <t>好慢，要看看</t>
-  </si>
-  <si>
-    <t>hmj651223</t>
-  </si>
-  <si>
-    <t>gaomaodi</t>
-  </si>
-  <si>
-    <t>mmmoo</t>
+    <t>舔怪练级</t>
   </si>
   <si>
     <t>tritium0811</t>
@@ -170,6 +161,9 @@
     <t>大队大队啊</t>
   </si>
   <si>
+    <t>舔怪，升级 2013/09/13 24:00</t>
+  </si>
+  <si>
     <t>好烦</t>
   </si>
   <si>
@@ -191,7 +185,7 @@
     <t>DQ1101</t>
   </si>
   <si>
-    <t>22W好人卡</t>
+    <t>22W好人卡，估计还是狼舔了好</t>
   </si>
   <si>
     <t>叶宏凌</t>
@@ -203,7 +197,7 @@
     <t>叶葵</t>
   </si>
   <si>
-    <t>舔怪练级 9月26日</t>
+    <t>9月18日，舔怪，后面开练级</t>
   </si>
   <si>
     <t>hdy1802</t>
@@ -224,7 +218,7 @@
     <t>魔法之派~亚瑟</t>
   </si>
   <si>
-    <t>9月18日，舔怪，后面开练级</t>
+    <t>舔怪，后面开练级</t>
   </si>
   <si>
     <t>dccong</t>
@@ -475,7 +469,13 @@
     <t>正常，帮打理，删除好友， 9月1日18:00</t>
   </si>
   <si>
-    <t>舔怪练级 9月2日12点停止 付款到8月30 24点</t>
+    <t>hmj651223</t>
+  </si>
+  <si>
+    <t>gaomaodi</t>
+  </si>
+  <si>
+    <t>mmmoo</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -497,18 +497,11 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="30"/>
-      <name val="Verdana"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -569,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -580,9 +573,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -929,7 +919,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1040,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -1116,41 +1106,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>18600655339</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2">
-        <v>41503</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="7" s="6" customFormat="1" spans="1:9">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>13023751921</v>
@@ -1159,7 +1117,7 @@
         <v>19870811</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6">
         <v>60</v>
@@ -1171,21 +1129,21 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>15887851580</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -1197,21 +1155,21 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>15953906196</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>52</v>
@@ -1223,21 +1181,21 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>15164061499</v>
       </c>
-      <c r="C10" t="s">
-        <v>34</v>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>63</v>
@@ -1249,24 +1207,24 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>13590611989</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>12345600</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>46</v>
@@ -1278,21 +1236,21 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>18554602803</v>
       </c>
-      <c r="C12" t="s">
-        <v>42</v>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>54</v>
@@ -1304,24 +1262,24 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>13774392509</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>61</v>
@@ -1333,21 +1291,21 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>18918188901</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>8091101</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>41519</v>
@@ -1356,21 +1314,21 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>15959209037</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1381,22 +1339,22 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
+      <c r="I15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>56</v>
+      <c r="A16" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>18650767750</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
+      <c r="C16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2">
         <v>41520</v>
@@ -1405,21 +1363,21 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>13088105001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>11111111</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2">
         <v>41520</v>
@@ -1428,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1399,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="22:22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1458,16 +1416,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1479,12 +1437,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1493,7 +1451,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1508,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1516,16 +1474,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>13684050705</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1540,21 +1498,21 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1569,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1577,16 +1535,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1601,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1609,16 +1567,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1633,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1644,16 +1602,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1676,16 +1634,16 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1697,21 +1655,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1726,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1737,13 +1695,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1758,21 +1716,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1787,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1795,16 +1753,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1816,15 +1774,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1833,7 +1791,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1845,21 +1803,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1871,12 +1829,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1885,7 +1843,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1894,24 +1852,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1923,24 +1881,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1949,21 +1907,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1978,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J18">
         <v>46</v>
@@ -1989,7 +1947,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1998,7 +1956,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -2007,21 +1965,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -2036,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J20">
         <v>60</v>
@@ -2047,16 +2005,16 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <v>13682563089</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -2068,33 +2026,47 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="1"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" s="2"/>
+      <c r="H22"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23">
+        <v>18600655339</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22">
-        <v>15959209037</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22">
-        <v>50</v>
-      </c>
-      <c r="G22" s="2">
-        <v>41510</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="D23" t="s">
         <v>139</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23" s="2">
+        <v>41503</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="13200"/>
+    <workbookView windowWidth="28700" windowHeight="14060"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t xml:space="preserve">wxsc1005 </t>
   </si>
@@ -64,37 +64,6 @@
     <t>N</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xswangking</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>a82636205</t>
-  </si>
-  <si>
-    <t>贪睡de小黑</t>
-  </si>
-  <si>
-    <t>舔怪练级</t>
-  </si>
-  <si>
     <t>tritium0811</t>
   </si>
   <si>
@@ -143,15 +112,6 @@
     <t>大款</t>
   </si>
   <si>
-    <t xml:space="preserve">a188144780 </t>
-  </si>
-  <si>
-    <t>八八八八八</t>
-  </si>
-  <si>
-    <t>舔怪，升级 2013/09/06 24:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">lg9662lg </t>
   </si>
   <si>
@@ -182,6 +142,9 @@
     <t>sabrina1101</t>
   </si>
   <si>
+    <t>08091101</t>
+  </si>
+  <si>
     <t>DQ1101</t>
   </si>
   <si>
@@ -218,7 +181,31 @@
     <t>魔法之派~亚瑟</t>
   </si>
   <si>
-    <t>舔怪，后面开练级</t>
+    <t>舔怪，后面开练级，9月22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laikeymxiao </t>
+  </si>
+  <si>
+    <t>Gz26292138007</t>
+  </si>
+  <si>
+    <t>KSaber</t>
+  </si>
+  <si>
+    <t>舔怪，后面开练级，9月10 12点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadako0409 </t>
+  </si>
+  <si>
+    <t>lmr2811111m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlchemyOwO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">舔怪，练级9yue16 12dain </t>
   </si>
   <si>
     <t>dccong</t>
@@ -240,15 +227,6 @@
   </si>
   <si>
     <t>完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadako0409 </t>
-  </si>
-  <si>
-    <t>lmr2811111m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlchemyOwO </t>
   </si>
   <si>
     <t xml:space="preserve">wanglongyi2000 </t>
@@ -476,6 +454,39 @@
   </si>
   <si>
     <t>mmmoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a188144780 </t>
+  </si>
+  <si>
+    <t>八八八八八</t>
+  </si>
+  <si>
+    <t>舔怪，升级 2013/09/06 24:00</t>
+  </si>
+  <si>
+    <r>
+      <t>xswangking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>a82636205</t>
+  </si>
+  <si>
+    <t>贪睡de小黑</t>
+  </si>
+  <si>
+    <t>舔怪练级</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -573,6 +584,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -916,10 +930,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1071,322 +1085,311 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" s="6" customFormat="1" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>15902134667</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>13023751921</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19870811</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="6">
+        <v>60</v>
+      </c>
+      <c r="G5" s="7">
+        <v>41506</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>15887851580</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>15953906196</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="G7" s="2">
+        <v>41512</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5" s="2">
-        <v>41503</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:9">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>13023751921</v>
-      </c>
-      <c r="C7" s="1">
-        <v>19870811</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6">
-        <v>60</v>
-      </c>
-      <c r="G7" s="7">
-        <v>41506</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
       <c r="B8">
-        <v>15887851580</v>
+        <v>15164061499</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
-        <v>41511</v>
+        <v>41514</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>15953906196</v>
+        <v>18554602803</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
-        <v>41512</v>
+        <v>41516</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>15164061499</v>
+        <v>13774392509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2">
-        <v>41514</v>
+        <v>41519</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>13590611989</v>
-      </c>
-      <c r="C11" s="1">
-        <v>12345600</v>
+        <v>18918188901</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>15959209037</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="2">
-        <v>41516</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>18554602803</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
       <c r="E12">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
-        <v>41516</v>
+        <v>41519</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>13774392509</v>
+        <v>18650767750</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2">
-        <v>41519</v>
+        <v>41520</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>46</v>
+      <c r="I13" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>18918188901</v>
+        <v>13088105001</v>
       </c>
       <c r="C14" s="1">
-        <v>8091101</v>
+        <v>11111111</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2">
-        <v>41519</v>
+        <v>41520</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B15">
-        <v>15959209037</v>
+        <v>18520905272</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2">
-        <v>41519</v>
+        <v>41524</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B16">
-        <v>18650767750</v>
+        <v>13684050705</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>49</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" s="2">
-        <v>41520</v>
+        <v>41525</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17">
-        <v>13088105001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>11111111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="2">
-        <v>41520</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1399,10 +1402,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A3" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1416,16 +1419,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1437,12 +1440,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1451,7 +1454,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1466,53 +1469,24 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>13684050705</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41501</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1527,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1535,16 +1509,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1559,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1567,16 +1541,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1591,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J6">
         <v>51</v>
@@ -1602,16 +1576,16 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1634,16 +1608,16 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
@@ -1655,21 +1629,21 @@
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1684,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>62</v>
@@ -1695,13 +1669,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1716,21 +1690,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
         <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>97</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1745,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1753,16 +1727,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1774,15 +1748,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
         <v>101</v>
-      </c>
-      <c r="M12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1791,7 +1765,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1803,21 +1777,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1829,12 +1803,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1843,7 +1817,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1852,24 +1826,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
         <v>111</v>
-      </c>
-      <c r="L15" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1881,24 +1855,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
         <v>116</v>
-      </c>
-      <c r="L16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
         <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1907,21 +1881,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" t="s">
         <v>123</v>
-      </c>
-      <c r="D18" t="s">
-        <v>124</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1936,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J18">
         <v>46</v>
@@ -1947,7 +1921,7 @@
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1956,7 +1930,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1965,21 +1939,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
         <v>130</v>
-      </c>
-      <c r="D20" t="s">
-        <v>131</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1994,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J20">
         <v>60</v>
@@ -2005,16 +1979,16 @@
     </row>
     <row r="21" ht="15" customHeight="1" spans="1:9">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>13682563089</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" t="s">
         <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>135</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -2026,29 +2000,26 @@
         <v>2</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="1"/>
-      <c r="D22"/>
-      <c r="E22"/>
       <c r="G22" s="2"/>
-      <c r="H22"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23">
         <v>18600655339</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
         <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -2066,6 +2037,67 @@
         <v>65</v>
       </c>
       <c r="K23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24">
+        <v>13590611989</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12345600</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>15902134667</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25" s="2">
+        <v>41503</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2119,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J1">
         <v>73</v>
@@ -2157,13 +2189,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28700" windowHeight="14060"/>
+    <workbookView windowWidth="25100" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
     <sheet name="完成" sheetId="2" r:id="rId2"/>
     <sheet name="暂停" sheetId="3" r:id="rId3"/>
     <sheet name="体验" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t xml:space="preserve">wxsc1005 </t>
   </si>
@@ -25,241 +26,178 @@
     <t>alices.G </t>
   </si>
   <si>
+    <t>封号</t>
+  </si>
+  <si>
+    <t>其中一个土豪</t>
+  </si>
+  <si>
+    <t>傲娇的小萝莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/27</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>xuflyfly</t>
+  </si>
+  <si>
+    <t>xufei1985</t>
+  </si>
+  <si>
+    <t>除非</t>
+  </si>
+  <si>
+    <t>舔怪，重复舔 2013/9/27 00</t>
+  </si>
+  <si>
+    <t>jerry19890815</t>
+  </si>
+  <si>
+    <t>jerryjkr1989</t>
+  </si>
+  <si>
+    <t>龙润帝</t>
+  </si>
+  <si>
+    <t>到100，周末不发货，速度要快，尅吃药，好人卡</t>
+  </si>
+  <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>9月18日，舔怪，后面开练级</t>
+  </si>
+  <si>
+    <t>hdy1802</t>
+  </si>
+  <si>
+    <t>q53589471</t>
+  </si>
+  <si>
+    <t>vessege</t>
+  </si>
+  <si>
+    <t>舔怪练级 10月04日</t>
+  </si>
+  <si>
+    <t>sss441044856</t>
+  </si>
+  <si>
+    <t>魔法之派~亚瑟</t>
+  </si>
+  <si>
+    <t>舔怪，后面开练级，9月22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadako0409 </t>
+  </si>
+  <si>
+    <t>lmr2811111m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlchemyOwO </t>
+  </si>
+  <si>
+    <t>舔怪，练级9月17 00点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilanqq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilan1899 </t>
+  </si>
+  <si>
+    <t>贺兰山雪</t>
+  </si>
+  <si>
+    <t>正常，帮打理，删除好友，9月29日12:00</t>
+  </si>
+  <si>
+    <t>其中一个土豪2</t>
+  </si>
+  <si>
+    <t>胯下有香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laikeymxiao </t>
+  </si>
+  <si>
+    <t>Gz26292138007</t>
+  </si>
+  <si>
+    <t>KSaber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/23 12:00</t>
+  </si>
+  <si>
+    <t>dccong</t>
+  </si>
+  <si>
+    <t>qiyuan001</t>
+  </si>
+  <si>
+    <t>:*☆祈愿</t>
+  </si>
+  <si>
+    <t>欠我40.  2013/8/26 2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llwcq89757 </t>
+  </si>
+  <si>
+    <t>つ稚い</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wanglongyi2000 </t>
+  </si>
+  <si>
+    <t>wangling</t>
+  </si>
+  <si>
+    <t>风的眷恋</t>
+  </si>
+  <si>
+    <t>2013/8/25 12点停止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w7513118 </t>
+  </si>
+  <si>
+    <t>w7513118</t>
+  </si>
+  <si>
+    <t>不甜的西瓜</t>
+  </si>
+  <si>
+    <t>50停止，明天停止</t>
+  </si>
+  <si>
+    <t>starha星皓</t>
+  </si>
+  <si>
+    <t>ywq19921124</t>
+  </si>
+  <si>
+    <t>StarHA</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>其中一个土豪</t>
-  </si>
-  <si>
-    <t>傲娇的小萝莉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/9/14</t>
-  </si>
-  <si>
-    <t>xzk940916</t>
-  </si>
-  <si>
-    <t>qq2694868</t>
-  </si>
-  <si>
-    <t>HazerLegacy</t>
-  </si>
-  <si>
-    <t>好慢，要看看,到100</t>
-  </si>
-  <si>
-    <t>moon312</t>
-  </si>
-  <si>
-    <t>v2sunshine312312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">矢仓枫子 </t>
-  </si>
-  <si>
-    <t>100 暂停了，9月2日开始停止</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>tritium0811</t>
-  </si>
-  <si>
-    <t>松岡美羽</t>
-  </si>
-  <si>
-    <t>只舔怪   2013/9/24 12点停止</t>
-  </si>
-  <si>
-    <t>陈帅伍01</t>
-  </si>
-  <si>
-    <t>sdfzcsw5519106</t>
-  </si>
-  <si>
-    <t>夏特亚</t>
-  </si>
-  <si>
-    <t>9.26 2400,要求22W好人卡先</t>
-  </si>
-  <si>
-    <t>xuflyfly</t>
-  </si>
-  <si>
-    <t>xufei1985</t>
-  </si>
-  <si>
-    <t>除非</t>
-  </si>
-  <si>
-    <t>舔怪，重复舔 2013/9/27 00</t>
-  </si>
-  <si>
-    <t>bkhhkl</t>
-  </si>
-  <si>
-    <t>bkhhkl30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">亚特兰蒂斯 </t>
-  </si>
-  <si>
-    <t>升级，舔怪 到100</t>
-  </si>
-  <si>
-    <t>大款</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lg9662lg </t>
-  </si>
-  <si>
-    <t>lg9662lg</t>
-  </si>
-  <si>
-    <t>大队大队啊</t>
-  </si>
-  <si>
-    <t>舔怪，升级 2013/09/13 24:00</t>
-  </si>
-  <si>
-    <t>好烦</t>
-  </si>
-  <si>
-    <t>jerry19890815</t>
-  </si>
-  <si>
-    <t>jerryjkr1989</t>
-  </si>
-  <si>
-    <t>龙润帝</t>
-  </si>
-  <si>
-    <t>到100，周末不发货，速度要快，尅吃药，好人卡</t>
-  </si>
-  <si>
-    <t>sabrina1101</t>
-  </si>
-  <si>
-    <t>08091101</t>
-  </si>
-  <si>
-    <t>DQ1101</t>
-  </si>
-  <si>
-    <t>22W好人卡，估计还是狼舔了好</t>
-  </si>
-  <si>
-    <t>叶宏凌</t>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
-    <t>9月18日，舔怪，后面开练级</t>
-  </si>
-  <si>
-    <t>hdy1802</t>
-  </si>
-  <si>
-    <t>q53589471</t>
-  </si>
-  <si>
-    <t>vessege</t>
-  </si>
-  <si>
-    <t>舔怪练级 10月04日</t>
-  </si>
-  <si>
-    <t>sss441044856</t>
-  </si>
-  <si>
-    <t>魔法之派~亚瑟</t>
-  </si>
-  <si>
-    <t>舔怪，后面开练级，9月22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laikeymxiao </t>
-  </si>
-  <si>
-    <t>Gz26292138007</t>
-  </si>
-  <si>
-    <t>KSaber</t>
-  </si>
-  <si>
-    <t>舔怪，后面开练级，9月10 12点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadako0409 </t>
-  </si>
-  <si>
-    <t>lmr2811111m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlchemyOwO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">舔怪，练级9yue16 12dain </t>
-  </si>
-  <si>
-    <t>dccong</t>
-  </si>
-  <si>
-    <t>qiyuan001</t>
-  </si>
-  <si>
-    <t>:*☆祈愿</t>
-  </si>
-  <si>
-    <t>欠我40.  2013/8/26 2400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llwcq89757 </t>
-  </si>
-  <si>
-    <t>つ稚い</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wanglongyi2000 </t>
-  </si>
-  <si>
-    <t>wangling</t>
-  </si>
-  <si>
-    <t>风的眷恋</t>
-  </si>
-  <si>
-    <t>2013/8/25 12点停止</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w7513118 </t>
-  </si>
-  <si>
-    <t>w7513118</t>
-  </si>
-  <si>
-    <t>不甜的西瓜</t>
-  </si>
-  <si>
-    <t>50停止，明天停止</t>
-  </si>
-  <si>
-    <t>starha星皓</t>
-  </si>
-  <si>
-    <t>ywq19921124</t>
-  </si>
-  <si>
-    <t>StarHA</t>
   </si>
   <si>
     <t>Saber_1974</t>
@@ -413,6 +351,9 @@
     <t>8月31日晚上24点00</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>g7948598</t>
   </si>
   <si>
@@ -435,18 +376,6 @@
     <t>到80，越快越好，已经完成，确认是否需要下一步练级</t>
   </si>
   <si>
-    <t xml:space="preserve">acmilanqq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilan1899 </t>
-  </si>
-  <si>
-    <t>贺兰山雪</t>
-  </si>
-  <si>
-    <t>正常，帮打理，删除好友， 9月1日18:00</t>
-  </si>
-  <si>
     <t>hmj651223</t>
   </si>
   <si>
@@ -466,6 +395,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>xswangking</t>
     </r>
     <r>
@@ -489,6 +425,108 @@
     <t>舔怪练级</t>
   </si>
   <si>
+    <t>舔怪，后面开练级，9月10 12点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg9662lg </t>
+  </si>
+  <si>
+    <t>lg9662lg</t>
+  </si>
+  <si>
+    <t>大队大队啊</t>
+  </si>
+  <si>
+    <t>舔怪，升级 2013/09/13 24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tingzhi </t>
+  </si>
+  <si>
+    <t>好烦</t>
+  </si>
+  <si>
+    <t>陈帅伍01</t>
+  </si>
+  <si>
+    <t>sdfzcsw5519106</t>
+  </si>
+  <si>
+    <t>夏特亚</t>
+  </si>
+  <si>
+    <t>9.26 2400,要求22W好人卡先</t>
+  </si>
+  <si>
+    <t>bkhhkl</t>
+  </si>
+  <si>
+    <t>bkhhkl30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚特兰蒂斯 </t>
+  </si>
+  <si>
+    <t>升级，舔怪 到100</t>
+  </si>
+  <si>
+    <t>大款</t>
+  </si>
+  <si>
+    <t>moon312</t>
+  </si>
+  <si>
+    <t>v2sunshine312312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">矢仓枫子 </t>
+  </si>
+  <si>
+    <t>100 暂停了，9月2日开始停止</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>sabrina1101</t>
+  </si>
+  <si>
+    <t>08091101</t>
+  </si>
+  <si>
+    <t>DQ1101</t>
+  </si>
+  <si>
+    <t>22W好人卡，估计还是狼舔了好</t>
+  </si>
+  <si>
+    <t>手动</t>
+  </si>
+  <si>
+    <t>xzk940916</t>
+  </si>
+  <si>
+    <t>qq2694868</t>
+  </si>
+  <si>
+    <t>HazerLegacy</t>
+  </si>
+  <si>
+    <t>好慢，要看看,到100</t>
+  </si>
+  <si>
+    <t>未确认，先继续</t>
+  </si>
+  <si>
+    <t>tritium0811</t>
+  </si>
+  <si>
+    <t>松岡美羽</t>
+  </si>
+  <si>
+    <t>只舔怪   2013/9/24 12点停止 已经在9月16日停止了</t>
+  </si>
+  <si>
     <t>完成以后补上几天，他在刷bra</t>
   </si>
   <si>
@@ -496,6 +534,27 @@
   </si>
   <si>
     <t>乱来的</t>
+  </si>
+  <si>
+    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAqLYKqjSHW6KkawOWDfCbfxkBiQMfu%2FSf1j9uhEVGb2TPs6kjan%2BtAq%2B%0AOoDGIRXPX8c4a9YXXQxkds8EcLsmDVAd41RvgYMIvtNjhO3lqKLA%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
+  </si>
+  <si>
+    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAqh15yk1yGtDKqoR2CSjo%2BRkBiQMfu%2FSf1j9uhEVGb2TPs6kjan%2BtAq%2B%0AOoDGIRXPX8c4a9YXXQxkds8EcLsmDVAd41RvgYMIvtNjhO3lqKLA%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
+  </si>
+  <si>
+    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAgPqJf03pDWMt%2FRbobQ6xQsA5IFRt2PHY%2FotQAcriByAfiB1H5idByGv%0AfA5e9A6Sx%2FMZ4wec8mTBOHHdwMRt9Ve1HezoFxW73C0pPB0174d6%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>C=kBKk7MGRVMr1NussS5bWdD7OpI2p%2FrQKvjqAxiEVz1%2FHOGvWF10MZHbPBHC7Jg1QZAYkDH7v0n9Y%0A%2FboRFRm9k83hsHZFRs%2ByfEqapAl7vSI%3D%0A&amp;lr=MgaTsT9H%2BW0dTlQcKJ%2FQPg%3D%3D%0A</t>
+  </si>
+  <si>
+    <t>女仆</t>
+  </si>
+  <si>
+    <t>C=cCVBf1VgdYnJZDoXtYJIuz7OpI2p%2FrQKvjqAxiEVz1%2FHOGvWF10MZHbPBHC7Jg1QZAYkDH7v0n9Y%0A%2FboRFRm9k83hsHZFRs%2ByfEqapAl7vSI%3D%0A&amp;lr=eCsuSSD3H6ejKJO%2BIeDfPg%3D%3D%0A</t>
   </si>
 </sst>
 </file>
@@ -580,13 +639,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -930,10 +986,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1012,384 +1068,256 @@
         <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>15953906196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2">
+        <v>41512</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3">
-        <v>18623314926</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>35</v>
-      </c>
-      <c r="F3">
-        <v>73</v>
-      </c>
-      <c r="G3" s="2">
-        <v>41502</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>13925094844</v>
+        <v>13774392509</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>61</v>
       </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
       <c r="G4" s="2">
-        <v>41502</v>
+        <v>41519</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:9">
-      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>13023751921</v>
-      </c>
-      <c r="C5" s="1">
-        <v>19870811</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6">
+        <v>15959209037</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6">
-        <v>60</v>
-      </c>
-      <c r="G5" s="7">
-        <v>41506</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>15887851580</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7">
+        <v>18650767750</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>41511</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="G7" s="2">
+        <v>41520</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>15953906196</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8">
+        <v>13088105001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11111111</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>52</v>
-      </c>
-      <c r="G7" s="2">
-        <v>41512</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="G8" s="2">
+        <v>41520</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>15164061499</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9">
+        <v>13684050705</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2">
-        <v>41514</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>18554602803</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
       <c r="E9">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2">
-        <v>41516</v>
+        <v>41525</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:9">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>13682563089</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
+      <c r="B11">
+        <v>15016780433</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1213005566</v>
+      </c>
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41501</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <v>13774392509</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2">
-        <v>41519</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <v>18918188901</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2">
-        <v>41519</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>15959209037</v>
+        <v>18520905272</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
-        <v>41519</v>
+        <v>41524</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
-        <v>18650767750</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
-        <v>41520</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14">
-        <v>13088105001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11111111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="2">
-        <v>41520</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15">
-        <v>18520905272</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="2">
-        <v>41524</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16">
-        <v>13684050705</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16">
-        <v>49</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="2">
-        <v>41525</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1330,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="3:3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1419,16 +1347,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1440,12 +1368,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1454,7 +1382,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1469,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1477,16 +1405,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1501,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1509,16 +1437,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1533,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1541,16 +1469,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1565,27 +1493,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1593,7 +1521,7 @@
       <c r="F7" s="3">
         <v>70</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>41502</v>
       </c>
       <c r="H7" s="3">
@@ -1603,47 +1531,47 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>84</v>
+      <c r="A8" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>41506</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1658,24 +1586,24 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J9">
         <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1690,21 +1618,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1719,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1727,16 +1655,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1748,15 +1676,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1765,7 +1693,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1777,21 +1705,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1803,12 +1731,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1817,7 +1745,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1826,24 +1754,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1855,24 +1783,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1881,21 +1809,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1910,18 +1838,18 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J18">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1930,7 +1858,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1939,21 +1867,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1968,39 +1896,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="J20">
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:9">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21">
-        <v>13682563089</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21">
-        <v>24</v>
-      </c>
-      <c r="G21" s="2">
-        <v>41511</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:9">
@@ -2010,16 +1912,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>18600655339</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -2037,12 +1939,12 @@
         <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B24">
         <v>13590611989</v>
@@ -2051,7 +1953,7 @@
         <v>12345600</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E24">
         <v>46</v>
@@ -2063,21 +1965,21 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
-        <v>142</v>
+      <c r="A25" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B25">
         <v>15902134667</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>26</v>
@@ -2092,13 +1994,254 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J25">
         <v>41</v>
       </c>
       <c r="K25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>18520905272</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="2">
+        <v>41524</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>18554602803</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27">
+        <v>54</v>
+      </c>
+      <c r="G27" s="2">
+        <v>41516</v>
+      </c>
+      <c r="H27">
         <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>15887851580</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2">
+        <v>41511</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29">
+        <v>15164061499</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2">
+        <v>41514</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30">
+        <v>13925094844</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>85</v>
+      </c>
+      <c r="G30" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30">
+        <v>73</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <v>18918188901</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32">
+        <v>18623314926</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>73</v>
+      </c>
+      <c r="G32" s="2">
+        <v>41502</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J32">
+        <v>69</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:11">
+      <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33">
+        <v>13023751921</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19870811</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="4">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7">
+        <v>41506</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2127,16 +2270,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -2151,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2189,13 +2332,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2203,4 +2346,66 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="156" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/账号.xlsx
+++ b/账号.xlsx
@@ -18,129 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
-  <si>
-    <t xml:space="preserve">wxsc1005 </t>
-  </si>
-  <si>
-    <t>alices.G </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+  <si>
+    <t>其中一个土豪</t>
+  </si>
+  <si>
+    <t>傲娇的小萝莉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/27</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>xuflyfly</t>
+  </si>
+  <si>
+    <t>xufei1985</t>
+  </si>
+  <si>
+    <t>除非</t>
+  </si>
+  <si>
+    <t>舔怪，重复舔 2013/9/27 00</t>
+  </si>
+  <si>
+    <t>jerry19890815</t>
+  </si>
+  <si>
+    <t>jerryjkr1989</t>
+  </si>
+  <si>
+    <t>龙润帝</t>
+  </si>
+  <si>
+    <t>200.大刀啦</t>
+  </si>
+  <si>
+    <t>tritium0811</t>
+  </si>
+  <si>
+    <t>松岡美羽</t>
+  </si>
+  <si>
+    <t>只舔怪   2013/9/24 12点停止 已经在9月16日停止了</t>
+  </si>
+  <si>
+    <t>未确认，先继续</t>
+  </si>
+  <si>
+    <t>hdy1802</t>
+  </si>
+  <si>
+    <t>q53589471</t>
+  </si>
+  <si>
+    <t>vessege</t>
+  </si>
+  <si>
+    <t>舔怪练级 10月04日</t>
+  </si>
+  <si>
+    <t>sss441044856</t>
+  </si>
+  <si>
+    <t>魔法之派~亚瑟</t>
+  </si>
+  <si>
+    <t>舔怪，后面开练级，9月22</t>
+  </si>
+  <si>
+    <t>只舔怪   2013/9/26 12点停止 已经在9月16日停止了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilanqq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acmilan1899 </t>
+  </si>
+  <si>
+    <t>贺兰山雪</t>
+  </si>
+  <si>
+    <t>正常，帮打理，删除好友，9月29日12:00</t>
+  </si>
+  <si>
+    <t>其中一个土豪2</t>
+  </si>
+  <si>
+    <t>胯下有香蕉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/22</t>
   </si>
   <si>
     <t>封号</t>
-  </si>
-  <si>
-    <t>其中一个土豪</t>
-  </si>
-  <si>
-    <t>傲娇的小萝莉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/9/27</t>
-  </si>
-  <si>
-    <t>继续</t>
-  </si>
-  <si>
-    <t>xuflyfly</t>
-  </si>
-  <si>
-    <t>xufei1985</t>
-  </si>
-  <si>
-    <t>除非</t>
-  </si>
-  <si>
-    <t>舔怪，重复舔 2013/9/27 00</t>
-  </si>
-  <si>
-    <t>jerry19890815</t>
-  </si>
-  <si>
-    <t>jerryjkr1989</t>
-  </si>
-  <si>
-    <t>龙润帝</t>
-  </si>
-  <si>
-    <t>到100，周末不发货，速度要快，尅吃药，好人卡</t>
-  </si>
-  <si>
-    <t>叶宏凌</t>
-  </si>
-  <si>
-    <t>QQ423816442</t>
-  </si>
-  <si>
-    <t>叶葵</t>
-  </si>
-  <si>
-    <t>9月18日，舔怪，后面开练级</t>
-  </si>
-  <si>
-    <t>hdy1802</t>
-  </si>
-  <si>
-    <t>q53589471</t>
-  </si>
-  <si>
-    <t>vessege</t>
-  </si>
-  <si>
-    <t>舔怪练级 10月04日</t>
-  </si>
-  <si>
-    <t>sss441044856</t>
-  </si>
-  <si>
-    <t>魔法之派~亚瑟</t>
-  </si>
-  <si>
-    <t>舔怪，后面开练级，9月22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadako0409 </t>
-  </si>
-  <si>
-    <t>lmr2811111m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlchemyOwO </t>
-  </si>
-  <si>
-    <t>舔怪，练级9月17 00点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilanqq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acmilan1899 </t>
-  </si>
-  <si>
-    <t>贺兰山雪</t>
-  </si>
-  <si>
-    <t>正常，帮打理，删除好友，9月29日12:00</t>
-  </si>
-  <si>
-    <t>其中一个土豪2</t>
-  </si>
-  <si>
-    <t>胯下有香蕉</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/9/22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laikeymxiao </t>
-  </si>
-  <si>
-    <t>Gz26292138007</t>
-  </si>
-  <si>
-    <t>KSaber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 舔怪，练级 2013/9/23 12:00</t>
   </si>
   <si>
     <t>dccong</t>
@@ -425,6 +398,15 @@
     <t>舔怪练级</t>
   </si>
   <si>
+    <t xml:space="preserve">laikeymxiao </t>
+  </si>
+  <si>
+    <t>Gz26292138007</t>
+  </si>
+  <si>
+    <t>KSaber</t>
+  </si>
+  <si>
     <t>舔怪，后面开练级，9月10 12点</t>
   </si>
   <si>
@@ -515,16 +497,49 @@
     <t>好慢，要看看,到100</t>
   </si>
   <si>
-    <t>未确认，先继续</t>
-  </si>
-  <si>
-    <t>tritium0811</t>
-  </si>
-  <si>
-    <t>松岡美羽</t>
-  </si>
-  <si>
-    <t>只舔怪   2013/9/24 12点停止 已经在9月16日停止了</t>
+    <t xml:space="preserve">sadako0409 </t>
+  </si>
+  <si>
+    <t>lmr2811111m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlchemyOwO </t>
+  </si>
+  <si>
+    <t>舔怪，练级9月17 00点</t>
+  </si>
+  <si>
+    <t>叶宏凌</t>
+  </si>
+  <si>
+    <t>QQ423816442</t>
+  </si>
+  <si>
+    <t>叶葵</t>
+  </si>
+  <si>
+    <t>9月18日，舔怪，后面开练级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wxsc1005 </t>
+  </si>
+  <si>
+    <t>alices.G </t>
+  </si>
+  <si>
+    <t>w4304214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leavemealonE </t>
+  </si>
+  <si>
+    <t>Kazuto</t>
+  </si>
+  <si>
+    <t>大刀就好 ，9月24日晚24点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 舔怪，练级 2013/9/23 12:00</t>
   </si>
   <si>
     <t>完成以后补上几天，他在刷bra</t>
@@ -536,10 +551,16 @@
     <t>乱来的</t>
   </si>
   <si>
-    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAqLYKqjSHW6KkawOWDfCbfxkBiQMfu%2FSf1j9uhEVGb2TPs6kjan%2BtAq%2B%0AOoDGIRXPX8c4a9YXXQxkds8EcLsmDVAd41RvgYMIvtNjhO3lqKLA%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
-  </si>
-  <si>
-    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAqh15yk1yGtDKqoR2CSjo%2BRkBiQMfu%2FSf1j9uhEVGb2TPs6kjan%2BtAq%2B%0AOoDGIRXPX8c4a9YXXQxkds8EcLsmDVAd41RvgYMIvtNjhO3lqKLA%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
+    <t>狼+女仆+双倍</t>
+  </si>
+  <si>
+    <t>C=qu4sDA%2B9tkWRRlS6WgkiuId4phTzSLO0XuDlR%2FW%2BYIsQCOhH2TansQXoPfUBP2hDjHuvD7S9Qqn%2B%0Alz437awUffMZ4wec8mTBOHHdwMRt9Vd71YlWf2A%2BbfMUGSyCMMdC%0A&amp;lr=yMJilLSU3z4T3A5rAfPsJw%3D%3D%0A</t>
+  </si>
+  <si>
+    <t>杨幂+亚瑟+双倍</t>
+  </si>
+  <si>
+    <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAvqgOpmcaEzub5j3g3tTuDSMe68PtL1Cqf6XPjftrBR98xnjB5zyZME4%0Acd3AxG31VxAI6EfZNqexBeg99QE%2FaEO5APLr%2BXzBzrt%2BWJ2PAEIa%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
   </si>
   <si>
     <t>C=2bXKYU%2FVdHc0C%2FiZtJ%2BpAgPqJf03pDWMt%2FRbobQ6xQsA5IFRt2PHY%2FotQAcriByAfiB1H5idByGv%0AfA5e9A6Sx%2FMZ4wec8mTBOHHdwMRt9Ve1HezoFxW73C0pPB0174d6%0A&amp;lr=giY1Dkt5ax6JmjKR43IjqA%3D%3D%0A</t>
@@ -562,16 +583,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -632,16 +660,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -986,10 +1017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I50" sqref="I49:I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1004,41 +1035,9 @@
     <col min="9" max="9" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>15899563412</v>
-      </c>
-      <c r="C1" s="1">
-        <v>123123123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>28</v>
-      </c>
-      <c r="F1">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2">
-        <v>41501</v>
-      </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>18819705982</v>
@@ -1047,7 +1046,7 @@
         <v>1213005566</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>46</v>
@@ -1062,27 +1061,27 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>15953906196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>52</v>
@@ -1094,24 +1093,24 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:11">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>13774392509</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>61</v>
@@ -1123,53 +1122,53 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:11">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>13023751921</v>
+      </c>
+      <c r="C5" s="1">
+        <v>19870811</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
+        <v>60</v>
+      </c>
+      <c r="G5" s="8">
+        <v>41506</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="K5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B6">
-        <v>15959209037</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2">
-        <v>41519</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>18650767750</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="2">
         <v>41520</v>
@@ -1178,15 +1177,15 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>13088105001</v>
@@ -1195,7 +1194,7 @@
         <v>11111111</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2">
         <v>41520</v>
@@ -1204,53 +1203,53 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:11">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>13684050705</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>13023751921</v>
+      </c>
+      <c r="C9" s="1">
+        <v>19870811</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2">
-        <v>41525</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>60</v>
+      </c>
+      <c r="G9" s="8">
+        <v>41506</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:9">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>13682563089</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>24</v>
@@ -1262,12 +1261,12 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>15016780433</v>
@@ -1276,7 +1275,7 @@
         <v>1213005566</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -1288,36 +1287,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>18520905272</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="2">
-        <v>41524</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1330,33 +1306,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A39" sqref="39:39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="40.875" customWidth="1"/>
-    <col min="3" max="3" width="9.375"/>
+    <col min="3" max="3" width="10.375"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1">
         <v>13968513557</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1368,12 +1344,12 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>18233505950</v>
@@ -1382,7 +1358,7 @@
         <v>33642464</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>31</v>
@@ -1397,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>41</v>
@@ -1405,16 +1381,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>15055870227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>64</v>
@@ -1429,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>55</v>
@@ -1437,16 +1413,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>18031406871</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>42</v>
@@ -1461,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J5">
         <v>47</v>
@@ -1469,16 +1445,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>18825111196</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -1493,27 +1469,27 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:11">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>18669786886</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3">
         <v>50</v>
@@ -1521,7 +1497,7 @@
       <c r="F7" s="3">
         <v>70</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>41502</v>
       </c>
       <c r="H7" s="3">
@@ -1531,47 +1507,47 @@
         <v>53</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>63</v>
+      <c r="A8" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B8">
         <v>18620662086</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3">
         <v>45</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>41506</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>13621790635</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -1586,24 +1562,24 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J9">
         <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>15810706616</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>47</v>
@@ -1618,21 +1594,21 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1" spans="1:10">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>18857879155</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>56</v>
@@ -1647,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>69</v>
@@ -1655,16 +1631,16 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>15778648815</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>41</v>
@@ -1676,15 +1652,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>13670251892</v>
@@ -1693,7 +1669,7 @@
         <v>19961225</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -1705,21 +1681,21 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>13718854889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1731,12 +1707,12 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>13868879028</v>
@@ -1745,7 +1721,7 @@
         <v>11223344</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>41514</v>
@@ -1754,24 +1730,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>13636439500</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>52</v>
@@ -1783,24 +1759,24 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>18669000833</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G17" s="2">
         <v>41510</v>
@@ -1809,21 +1785,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>13986809410</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1838,18 +1814,18 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J18">
         <v>46</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="1:9">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <v>15195905183</v>
@@ -1858,7 +1834,7 @@
         <v>79499888</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E19">
         <v>41</v>
@@ -1867,21 +1843,21 @@
         <v>41508</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>13810607691</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <v>55</v>
@@ -1896,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J20">
         <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:9">
@@ -1912,16 +1888,16 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>18600655339</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -1939,12 +1915,12 @@
         <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B24">
         <v>13590611989</v>
@@ -1953,7 +1929,7 @@
         <v>12345600</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E24">
         <v>46</v>
@@ -1965,21 +1941,21 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6" t="s">
-        <v>118</v>
+      <c r="A25" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B25">
         <v>15902134667</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>26</v>
@@ -1994,27 +1970,27 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J25">
         <v>41</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>18520905272</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2">
         <v>41524</v>
@@ -2023,21 +1999,21 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B27">
         <v>18554602803</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>54</v>
@@ -2049,27 +2025,27 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <v>15887851580</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -2081,21 +2057,21 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B29">
         <v>15164061499</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>63</v>
@@ -2110,27 +2086,27 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B30">
         <v>13925094844</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E30">
         <v>61</v>
@@ -2145,27 +2121,27 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J30">
         <v>73</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>142</v>
+      <c r="K30" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B31">
         <v>18918188901</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G31" s="2">
         <v>41519</v>
@@ -2174,24 +2150,24 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B32">
         <v>18623314926</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E32">
         <v>35</v>
@@ -2206,42 +2182,169 @@
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J32">
         <v>69</v>
       </c>
       <c r="K32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34">
+        <v>13684050705</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="G34" s="2">
+        <v>41525</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>15959209037</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" s="4" customFormat="1" spans="1:11">
-      <c r="A33" t="s">
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="G35" s="2">
+        <v>41519</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
         <v>153</v>
       </c>
-      <c r="B33">
-        <v>13023751921</v>
-      </c>
-      <c r="C33" s="1">
-        <v>19870811</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="4">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7">
-        <v>41506</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="B36">
+        <v>15899563412</v>
+      </c>
+      <c r="C36" s="1">
+        <v>123123123</v>
+      </c>
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>152</v>
+      <c r="E36">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41501</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>69</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37">
+        <v>18686762906</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41536</v>
+      </c>
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38">
+        <v>18520905272</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41524</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>18520905272</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41524</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2270,16 +2373,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B1">
         <v>13925094844</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E1">
         <v>61</v>
@@ -2294,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J1">
         <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2332,13 +2435,13 @@
         <v>13951929427</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2457,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -2364,19 +2467,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>160</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2384,23 +2492,23 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/账号.xlsx
+++ b/账号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25100" windowHeight="13620"/>
+    <workbookView windowWidth="20360" windowHeight="9380"/>
   </bookViews>
   <sheets>
     <sheet name="启用" sheetId="1" r:id="rId1"/>
@@ -583,10 +583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1020,7 +1020,7 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I50" sqref="I49:I50"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2457,7 +2457,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
